--- a/telegram_bot/templet_files/a4_gray_cert.xlsx
+++ b/telegram_bot/templet_files/a4_gray_cert.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">المنطقة التعليمية :</t>
   </si>
   <si>
-    <t xml:space="preserve">البلـــــــــــدة:</t>
+    <t xml:space="preserve">البلـــدة:</t>
   </si>
   <si>
     <t xml:space="preserve">اللواء:</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">الى يوم</t>
   </si>
   <si>
-    <t xml:space="preserve">2- تسلم الكتب المدرسية للطلبة ويسجل المنقولون منهم يـــــــوم </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- يبدأ التدريس في الفصل الدراسي الأول  للعام الدراســـــــي</t>
+    <t xml:space="preserve">2- تسلم الكتب المدرسية للطلبة ويسجل المنقولون منهم يـــــوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- يبدأ التدريس في الفصل الدراسي الأول  للعام الدراســـــي</t>
   </si>
   <si>
     <t xml:space="preserve">يوم </t>
@@ -204,12 +204,13 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,38 +231,43 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="16"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -269,12 +275,14 @@
       <color rgb="FF0000FF"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -282,24 +290,28 @@
       <color rgb="FF0000FF"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="18"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -307,6 +319,7 @@
       <color rgb="FF0000FF"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -314,6 +327,7 @@
       <color rgb="FF000000"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -321,6 +335,7 @@
       <color rgb="FF000000"/>
       <name val="Traditional Arabic"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -328,17 +343,14 @@
       <color rgb="FF0000FF"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -355,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -480,13 +492,6 @@
       <right style="medium"/>
       <top/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -627,7 +632,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,7 +641,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -800,6 +809,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
@@ -820,7 +833,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,115 +841,111 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -944,7 +953,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -996,54 +1005,45 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>-554400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-575640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>225720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>-97920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>-120600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Picture 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-4138200" y="297720"/>
-          <a:ext cx="1090800" cy="1056600"/>
+          <a:off x="-3525120" y="225720"/>
+          <a:ext cx="1089360" cy="1055160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:blipFill rotWithShape="0">
           <a:blip r:embed="rId1"/>
+          <a:srcRect/>
           <a:stretch/>
         </a:blipFill>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t" anchorCtr="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>o</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1055,538 +1055,537 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A3:D67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="2" width="8.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1604,889 +1603,955 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="22.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="5" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="18.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="5" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="6" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="18.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="8" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" s="15" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" s="16" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" s="15" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" s="16" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="13" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" s="15" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" s="15" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" s="16" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" s="16" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" s="15" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" s="15" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" s="16" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" s="16" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="30" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="33" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36" t="s">
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="0"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Y21" s="0"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0"/>
-      <c r="Y22" s="0"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="0"/>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0"/>
-      <c r="Y23" s="0"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="0"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0"/>
-      <c r="Y24" s="0"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="0"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0"/>
-      <c r="Y25" s="0"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="0"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="0"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0"/>
-      <c r="Y26" s="0"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="0"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0"/>
-      <c r="Y27" s="0"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="0"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="0"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0"/>
-      <c r="Y28" s="0"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="0"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="0"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0"/>
-      <c r="Y29" s="0"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="0"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="0"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0"/>
-      <c r="Y30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-    </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
-    </row>
-    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="47"/>
-    </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="47"/>
-    </row>
-    <row r="36" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-    </row>
-    <row r="37" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="57" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+    </row>
+    <row r="31" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59" t="s">
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="61" t="s">
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="61"/>
-      <c r="J37" s="62"/>
-    </row>
-    <row r="38" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="63" t="s">
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-    </row>
-    <row r="39" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="65" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+    </row>
+    <row r="34" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-    </row>
-    <row r="40" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="67" t="s">
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+    </row>
+    <row r="35" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69" t="s">
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="70" t="s">
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="70"/>
-      <c r="J40" s="71"/>
-    </row>
-    <row r="41" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="72" t="s">
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
+    </row>
+    <row r="36" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74" t="s">
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76" t="s">
+      <c r="F36" s="76"/>
+      <c r="G36" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="76"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="78"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="78"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-    </row>
-    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="78" t="s">
+      <c r="H36" s="77"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="79"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="79"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+    </row>
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-    </row>
-    <row r="45" s="83" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="81" t="s">
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="83" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="82"/>
-      <c r="G45" s="83" t="s">
+      <c r="F40" s="83"/>
+      <c r="G40" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="83" t="s">
+      <c r="H40" s="83"/>
+      <c r="I40" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="84"/>
-    </row>
-    <row r="46" s="85" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="81" t="s">
+      <c r="J40" s="85"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
+      <c r="U40" s="84"/>
+      <c r="V40" s="84"/>
+      <c r="W40" s="84"/>
+      <c r="X40" s="84"/>
+      <c r="Y40" s="84"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="83" t="s">
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="83" t="s">
+      <c r="F41" s="83"/>
+      <c r="G41" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="82"/>
-      <c r="I46" s="83" t="s">
+      <c r="H41" s="83"/>
+      <c r="I41" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="J46" s="84"/>
-    </row>
-    <row r="47" s="85" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="81" t="s">
+      <c r="J41" s="85"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="86"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="83" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="82"/>
-      <c r="G47" s="83" t="s">
+      <c r="F42" s="83"/>
+      <c r="G42" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="86"/>
+      <c r="X42" s="86"/>
+      <c r="Y42" s="86"/>
+    </row>
+    <row r="50" s="84" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+    </row>
+    <row r="51" s="86" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+    </row>
+    <row r="52" s="86" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="69">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:F4"/>
@@ -2539,33 +2604,23 @@
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="G30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G31:I31"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:J33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="H42:I42"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
